--- a/invoices_walmart/files/so_invoices.xlsx
+++ b/invoices_walmart/files/so_invoices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\wb_odoo_external_api\invoices_walmart\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A14AE7-F9A7-4667-8DDA-6CB64969AB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44CB053-0559-4039-9253-3DBF72010CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="15" windowWidth="20730" windowHeight="11310" xr2:uid="{5D941F05-6685-4D6A-8FCD-7985621E4B9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5D941F05-6685-4D6A-8FCD-7985621E4B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,1287 +25,2982 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="992">
   <si>
     <t>so_name</t>
   </si>
   <si>
-    <t>SO2233271</t>
-  </si>
-  <si>
-    <t>SO2233151</t>
-  </si>
-  <si>
-    <t>SO2233147</t>
-  </si>
-  <si>
-    <t>SO2233117</t>
-  </si>
-  <si>
-    <t>SO2233101</t>
-  </si>
-  <si>
-    <t>SO2233100</t>
-  </si>
-  <si>
-    <t>SO2233099</t>
-  </si>
-  <si>
-    <t>SO2233091</t>
-  </si>
-  <si>
-    <t>SO2233079</t>
-  </si>
-  <si>
-    <t>SO2233049</t>
-  </si>
-  <si>
-    <t>SO2233030</t>
-  </si>
-  <si>
-    <t>SO2233028</t>
-  </si>
-  <si>
-    <t>SO2232989</t>
-  </si>
-  <si>
-    <t>SO2232986</t>
-  </si>
-  <si>
-    <t>SO2232981</t>
-  </si>
-  <si>
-    <t>SO2232960</t>
-  </si>
-  <si>
-    <t>SO2232955</t>
-  </si>
-  <si>
-    <t>SO2232940</t>
-  </si>
-  <si>
-    <t>SO2232938</t>
-  </si>
-  <si>
-    <t>SO2232930</t>
-  </si>
-  <si>
-    <t>SO2232911</t>
-  </si>
-  <si>
-    <t>SO2232905</t>
-  </si>
-  <si>
-    <t>SO2232904</t>
-  </si>
-  <si>
-    <t>SO2232850</t>
-  </si>
-  <si>
-    <t>SO2232824</t>
-  </si>
-  <si>
-    <t>SO2232815</t>
-  </si>
-  <si>
-    <t>SO2232814</t>
-  </si>
-  <si>
-    <t>SO2232807</t>
-  </si>
-  <si>
-    <t>SO2232795</t>
-  </si>
-  <si>
-    <t>SO2232772</t>
-  </si>
-  <si>
-    <t>SO2232742</t>
-  </si>
-  <si>
-    <t>SO2232739</t>
-  </si>
-  <si>
-    <t>SO2232720</t>
-  </si>
-  <si>
-    <t>SO2232719</t>
-  </si>
-  <si>
-    <t>SO2232698</t>
-  </si>
-  <si>
-    <t>SO2232697</t>
-  </si>
-  <si>
-    <t>SO2232691</t>
-  </si>
-  <si>
-    <t>SO2232666</t>
-  </si>
-  <si>
-    <t>SO2232613</t>
-  </si>
-  <si>
-    <t>SO2232586</t>
-  </si>
-  <si>
-    <t>SO2232556</t>
-  </si>
-  <si>
-    <t>SO2232555</t>
-  </si>
-  <si>
-    <t>SO2232529</t>
-  </si>
-  <si>
-    <t>SO2232528</t>
-  </si>
-  <si>
-    <t>SO2232500</t>
-  </si>
-  <si>
-    <t>SO2232472</t>
-  </si>
-  <si>
-    <t>SO2232471</t>
-  </si>
-  <si>
-    <t>SO2232446</t>
-  </si>
-  <si>
-    <t>SO2232429</t>
-  </si>
-  <si>
-    <t>SO2232424</t>
-  </si>
-  <si>
-    <t>SO2232407</t>
-  </si>
-  <si>
-    <t>SO2232368</t>
-  </si>
-  <si>
-    <t>SO2232367</t>
-  </si>
-  <si>
-    <t>SO2232347</t>
-  </si>
-  <si>
-    <t>SO2232316</t>
-  </si>
-  <si>
-    <t>SO2232304</t>
-  </si>
-  <si>
-    <t>SO2232285</t>
-  </si>
-  <si>
-    <t>SO2232264</t>
-  </si>
-  <si>
-    <t>SO2232262</t>
-  </si>
-  <si>
-    <t>SO2232214</t>
-  </si>
-  <si>
-    <t>SO2232213</t>
-  </si>
-  <si>
-    <t>SO2232204</t>
-  </si>
-  <si>
-    <t>SO2232123</t>
-  </si>
-  <si>
-    <t>SO2232100</t>
-  </si>
-  <si>
-    <t>SO2232022</t>
-  </si>
-  <si>
-    <t>SO2232021</t>
-  </si>
-  <si>
-    <t>SO2231971</t>
-  </si>
-  <si>
-    <t>SO2230314</t>
-  </si>
-  <si>
-    <t>SO2231877</t>
-  </si>
-  <si>
-    <t>SO2231876</t>
-  </si>
-  <si>
-    <t>SO2231869</t>
-  </si>
-  <si>
-    <t>SO2231868</t>
-  </si>
-  <si>
-    <t>SO2231795</t>
-  </si>
-  <si>
-    <t>SO2229594</t>
-  </si>
-  <si>
-    <t>SO2231786</t>
-  </si>
-  <si>
-    <t>SO2231781</t>
-  </si>
-  <si>
-    <t>SO2231780</t>
-  </si>
-  <si>
-    <t>SO2231767</t>
-  </si>
-  <si>
-    <t>SO2231766</t>
-  </si>
-  <si>
-    <t>SO2231765</t>
-  </si>
-  <si>
-    <t>SO2231764</t>
-  </si>
-  <si>
-    <t>SO2231758</t>
-  </si>
-  <si>
-    <t>SO2231752</t>
-  </si>
-  <si>
-    <t>SO2229955</t>
-  </si>
-  <si>
-    <t>SO2231740</t>
-  </si>
-  <si>
-    <t>SO2231719</t>
-  </si>
-  <si>
-    <t>SO2231684</t>
-  </si>
-  <si>
-    <t>SO2231662</t>
-  </si>
-  <si>
-    <t>SO2231590</t>
-  </si>
-  <si>
-    <t>SO2231589</t>
-  </si>
-  <si>
-    <t>SO2231571</t>
-  </si>
-  <si>
-    <t>SO2231565</t>
-  </si>
-  <si>
-    <t>SO2231562</t>
-  </si>
-  <si>
-    <t>SO2231561</t>
-  </si>
-  <si>
-    <t>SO2231522</t>
-  </si>
-  <si>
-    <t>SO2231515</t>
-  </si>
-  <si>
-    <t>SO2231505</t>
-  </si>
-  <si>
-    <t>SO2231456</t>
-  </si>
-  <si>
-    <t>SO2231448</t>
-  </si>
-  <si>
-    <t>SO2231435</t>
-  </si>
-  <si>
-    <t>SO2231429</t>
-  </si>
-  <si>
-    <t>SO2231415</t>
-  </si>
-  <si>
-    <t>SO2231405</t>
-  </si>
-  <si>
-    <t>SO2231372</t>
-  </si>
-  <si>
-    <t>SO2231352</t>
-  </si>
-  <si>
-    <t>SO2231332</t>
-  </si>
-  <si>
-    <t>SO2231318</t>
-  </si>
-  <si>
-    <t>SO2231317</t>
-  </si>
-  <si>
-    <t>SO2231316</t>
-  </si>
-  <si>
-    <t>SO2231311</t>
-  </si>
-  <si>
-    <t>SO2231293</t>
-  </si>
-  <si>
-    <t>SO2231282</t>
-  </si>
-  <si>
-    <t>SO2231263</t>
-  </si>
-  <si>
-    <t>SO2231249</t>
-  </si>
-  <si>
-    <t>SO2231241</t>
-  </si>
-  <si>
-    <t>SO2231229</t>
-  </si>
-  <si>
-    <t>SO2231210</t>
-  </si>
-  <si>
-    <t>SO2231209</t>
-  </si>
-  <si>
-    <t>SO2231191</t>
-  </si>
-  <si>
-    <t>SO2231184</t>
-  </si>
-  <si>
-    <t>SO2231165</t>
-  </si>
-  <si>
-    <t>SO2231149</t>
-  </si>
-  <si>
-    <t>SO2231147</t>
-  </si>
-  <si>
-    <t>SO2231128</t>
-  </si>
-  <si>
-    <t>SO2231127</t>
-  </si>
-  <si>
-    <t>SO2231126</t>
-  </si>
-  <si>
-    <t>SO2231119</t>
-  </si>
-  <si>
-    <t>SO2231108</t>
-  </si>
-  <si>
-    <t>SO2231098</t>
-  </si>
-  <si>
-    <t>SO2231090</t>
-  </si>
-  <si>
-    <t>SO2231080</t>
-  </si>
-  <si>
-    <t>SO2231053</t>
-  </si>
-  <si>
-    <t>SO2231049</t>
-  </si>
-  <si>
-    <t>SO2231029</t>
-  </si>
-  <si>
-    <t>SO2231015</t>
-  </si>
-  <si>
-    <t>SO2231010</t>
-  </si>
-  <si>
-    <t>SO2230994</t>
-  </si>
-  <si>
-    <t>SO2230992</t>
-  </si>
-  <si>
-    <t>SO2230965</t>
-  </si>
-  <si>
-    <t>SO2230947</t>
-  </si>
-  <si>
-    <t>SO2230946</t>
-  </si>
-  <si>
-    <t>SO2230924</t>
-  </si>
-  <si>
-    <t>SO2230916</t>
-  </si>
-  <si>
-    <t>SO2230895</t>
-  </si>
-  <si>
-    <t>SO2230884</t>
-  </si>
-  <si>
-    <t>SO2230883</t>
-  </si>
-  <si>
-    <t>SO2230875</t>
-  </si>
-  <si>
-    <t>SO2230874</t>
-  </si>
-  <si>
-    <t>SO2230870</t>
-  </si>
-  <si>
-    <t>SO2230869</t>
-  </si>
-  <si>
-    <t>SO2230861</t>
-  </si>
-  <si>
-    <t>SO2230852</t>
-  </si>
-  <si>
-    <t>SO2230810</t>
-  </si>
-  <si>
-    <t>SO2230783</t>
-  </si>
-  <si>
-    <t>SO2230764</t>
-  </si>
-  <si>
-    <t>SO2230763</t>
-  </si>
-  <si>
-    <t>SO2230758</t>
-  </si>
-  <si>
-    <t>SO2230747</t>
-  </si>
-  <si>
-    <t>SO2230706</t>
-  </si>
-  <si>
-    <t>SO2230688</t>
-  </si>
-  <si>
-    <t>SO2230676</t>
-  </si>
-  <si>
-    <t>SO2230660</t>
-  </si>
-  <si>
-    <t>SO2230659</t>
-  </si>
-  <si>
-    <t>SO2230648</t>
-  </si>
-  <si>
-    <t>SO2230642</t>
-  </si>
-  <si>
-    <t>SO2230629</t>
-  </si>
-  <si>
-    <t>SO2230628</t>
-  </si>
-  <si>
-    <t>SO2230590</t>
-  </si>
-  <si>
-    <t>SO2230589</t>
-  </si>
-  <si>
-    <t>SO2230561</t>
-  </si>
-  <si>
-    <t>SO2230544</t>
-  </si>
-  <si>
-    <t>SO2230532</t>
-  </si>
-  <si>
-    <t>SO2230525</t>
-  </si>
-  <si>
-    <t>SO2230513</t>
-  </si>
-  <si>
-    <t>SO2230512</t>
-  </si>
-  <si>
-    <t>SO2230500</t>
-  </si>
-  <si>
-    <t>SO2230495</t>
-  </si>
-  <si>
-    <t>SO2230494</t>
-  </si>
-  <si>
-    <t>SO2230479</t>
-  </si>
-  <si>
-    <t>SO2230478</t>
-  </si>
-  <si>
-    <t>SO2230477</t>
-  </si>
-  <si>
-    <t>SO2230463</t>
-  </si>
-  <si>
-    <t>SO2230462</t>
-  </si>
-  <si>
-    <t>SO2230437</t>
-  </si>
-  <si>
-    <t>SO2230422</t>
-  </si>
-  <si>
-    <t>SO2230415</t>
-  </si>
-  <si>
-    <t>SO2230404</t>
-  </si>
-  <si>
-    <t>SO2230402</t>
-  </si>
-  <si>
-    <t>SO2230381</t>
-  </si>
-  <si>
-    <t>SO2230376</t>
-  </si>
-  <si>
-    <t>SO2230356</t>
-  </si>
-  <si>
-    <t>SO2230340</t>
-  </si>
-  <si>
-    <t>SO2230337</t>
-  </si>
-  <si>
-    <t>SO2230325</t>
-  </si>
-  <si>
-    <t>SO2230322</t>
-  </si>
-  <si>
-    <t>SO2230315</t>
-  </si>
-  <si>
-    <t>SO2230303</t>
-  </si>
-  <si>
-    <t>SO2230302</t>
-  </si>
-  <si>
-    <t>SO2230301</t>
-  </si>
-  <si>
-    <t>SO2230290</t>
-  </si>
-  <si>
-    <t>SO2230277</t>
-  </si>
-  <si>
-    <t>SO2230263</t>
-  </si>
-  <si>
-    <t>SO2230262</t>
-  </si>
-  <si>
-    <t>SO2230257</t>
-  </si>
-  <si>
-    <t>SO2230231</t>
-  </si>
-  <si>
-    <t>SO2230223</t>
-  </si>
-  <si>
-    <t>SO2230218</t>
-  </si>
-  <si>
-    <t>SO2230214</t>
-  </si>
-  <si>
-    <t>SO2230213</t>
-  </si>
-  <si>
-    <t>SO2230170</t>
-  </si>
-  <si>
-    <t>SO2230126</t>
-  </si>
-  <si>
-    <t>SO2230125</t>
-  </si>
-  <si>
-    <t>SO2230122</t>
-  </si>
-  <si>
-    <t>SO2230116</t>
-  </si>
-  <si>
-    <t>SO2230102</t>
-  </si>
-  <si>
-    <t>SO2230100</t>
-  </si>
-  <si>
-    <t>SO2230091</t>
-  </si>
-  <si>
-    <t>SO2230090</t>
-  </si>
-  <si>
-    <t>SO2230084</t>
-  </si>
-  <si>
-    <t>SO2230078</t>
-  </si>
-  <si>
-    <t>SO2230047</t>
-  </si>
-  <si>
-    <t>SO2230042</t>
-  </si>
-  <si>
-    <t>SO2230036</t>
-  </si>
-  <si>
-    <t>SO2230018</t>
-  </si>
-  <si>
-    <t>SO2230017</t>
-  </si>
-  <si>
-    <t>SO2230010</t>
-  </si>
-  <si>
-    <t>SO2230002</t>
-  </si>
-  <si>
-    <t>SO2229976</t>
-  </si>
-  <si>
-    <t>SO2229974</t>
-  </si>
-  <si>
-    <t>SO2229963</t>
-  </si>
-  <si>
-    <t>SO2229954</t>
-  </si>
-  <si>
-    <t>SO2229933</t>
-  </si>
-  <si>
-    <t>SO2229925</t>
-  </si>
-  <si>
-    <t>SO2229919</t>
-  </si>
-  <si>
-    <t>SO2229917</t>
-  </si>
-  <si>
-    <t>SO2229916</t>
-  </si>
-  <si>
-    <t>SO2229883</t>
-  </si>
-  <si>
-    <t>SO2229878</t>
-  </si>
-  <si>
-    <t>SO2229875</t>
-  </si>
-  <si>
-    <t>SO2229863</t>
-  </si>
-  <si>
-    <t>SO2229841</t>
-  </si>
-  <si>
-    <t>SO2229804</t>
-  </si>
-  <si>
-    <t>SO2229803</t>
-  </si>
-  <si>
-    <t>SO2229789</t>
-  </si>
-  <si>
-    <t>SO2229777</t>
-  </si>
-  <si>
-    <t>SO2229766</t>
-  </si>
-  <si>
-    <t>SO2229738</t>
-  </si>
-  <si>
-    <t>SO2229683</t>
-  </si>
-  <si>
-    <t>SO2229675</t>
-  </si>
-  <si>
-    <t>SO2229674</t>
-  </si>
-  <si>
-    <t>SO2229660</t>
-  </si>
-  <si>
-    <t>SO2229656</t>
-  </si>
-  <si>
-    <t>SO2229655</t>
-  </si>
-  <si>
-    <t>SO2229652</t>
-  </si>
-  <si>
-    <t>SO2229634</t>
-  </si>
-  <si>
-    <t>SO2229633</t>
-  </si>
-  <si>
-    <t>SO2229632</t>
-  </si>
-  <si>
-    <t>SO2229621</t>
-  </si>
-  <si>
-    <t>SO2229599</t>
-  </si>
-  <si>
-    <t>SO2229598</t>
-  </si>
-  <si>
-    <t>SO2229583</t>
-  </si>
-  <si>
-    <t>SO2229573</t>
-  </si>
-  <si>
-    <t>SO2229564</t>
-  </si>
-  <si>
-    <t>SO2229526</t>
-  </si>
-  <si>
-    <t>SO2229503</t>
-  </si>
-  <si>
-    <t>SO2229498</t>
-  </si>
-  <si>
-    <t>SO2229488</t>
-  </si>
-  <si>
-    <t>SO2229456</t>
-  </si>
-  <si>
-    <t>SO2229393</t>
-  </si>
-  <si>
-    <t>SO2229390</t>
-  </si>
-  <si>
-    <t>SO2229347</t>
-  </si>
-  <si>
-    <t>SO2229329</t>
-  </si>
-  <si>
-    <t>SO2229322</t>
-  </si>
-  <si>
-    <t>SO2229286</t>
-  </si>
-  <si>
-    <t>SO2229273</t>
-  </si>
-  <si>
-    <t>SO2229251</t>
-  </si>
-  <si>
-    <t>SO2229247</t>
-  </si>
-  <si>
-    <t>SO2229246</t>
-  </si>
-  <si>
-    <t>SO2229245</t>
-  </si>
-  <si>
-    <t>SO2229181</t>
-  </si>
-  <si>
-    <t>SO2229176</t>
-  </si>
-  <si>
-    <t>SO2229163</t>
-  </si>
-  <si>
-    <t>SO2229159</t>
-  </si>
-  <si>
-    <t>SO2229158</t>
-  </si>
-  <si>
-    <t>SO2229157</t>
-  </si>
-  <si>
-    <t>SO2229146</t>
-  </si>
-  <si>
-    <t>SO2229142</t>
-  </si>
-  <si>
-    <t>SO2229141</t>
-  </si>
-  <si>
-    <t>SO2229140</t>
-  </si>
-  <si>
-    <t>SO2229123</t>
-  </si>
-  <si>
-    <t>SO2229114</t>
-  </si>
-  <si>
-    <t>SO2229101</t>
-  </si>
-  <si>
-    <t>SO2229089</t>
-  </si>
-  <si>
-    <t>SO2229083</t>
-  </si>
-  <si>
-    <t>SO2229053</t>
-  </si>
-  <si>
-    <t>SO2229046</t>
-  </si>
-  <si>
-    <t>SO2229026</t>
-  </si>
-  <si>
-    <t>SO2229025</t>
-  </si>
-  <si>
-    <t>SO2229002</t>
-  </si>
-  <si>
-    <t>SO2229001</t>
-  </si>
-  <si>
-    <t>SO2228999</t>
-  </si>
-  <si>
-    <t>SO2228994</t>
-  </si>
-  <si>
-    <t>SO2228985</t>
-  </si>
-  <si>
-    <t>SO2228982</t>
-  </si>
-  <si>
-    <t>SO2228981</t>
-  </si>
-  <si>
-    <t>SO2228974</t>
-  </si>
-  <si>
-    <t>SO2228973</t>
-  </si>
-  <si>
-    <t>SO2228967</t>
-  </si>
-  <si>
-    <t>SO2228929</t>
-  </si>
-  <si>
-    <t>SO2228924</t>
-  </si>
-  <si>
-    <t>SO2228909</t>
-  </si>
-  <si>
-    <t>SO2228908</t>
-  </si>
-  <si>
-    <t>SO2228896</t>
-  </si>
-  <si>
-    <t>SO2228868</t>
-  </si>
-  <si>
-    <t>SO2228852</t>
-  </si>
-  <si>
-    <t>SO2228832</t>
-  </si>
-  <si>
-    <t>SO2228822</t>
-  </si>
-  <si>
-    <t>SO2228779</t>
-  </si>
-  <si>
-    <t>SO2228771</t>
-  </si>
-  <si>
-    <t>SO2228770</t>
-  </si>
-  <si>
-    <t>SO2228756</t>
-  </si>
-  <si>
-    <t>SO2228729</t>
-  </si>
-  <si>
-    <t>SO2228718</t>
-  </si>
-  <si>
-    <t>SO2228717</t>
-  </si>
-  <si>
-    <t>SO2228706</t>
-  </si>
-  <si>
-    <t>SO2228686</t>
-  </si>
-  <si>
-    <t>SO2228681</t>
-  </si>
-  <si>
-    <t>SO2228674</t>
-  </si>
-  <si>
-    <t>SO2228673</t>
-  </si>
-  <si>
-    <t>SO2228642</t>
-  </si>
-  <si>
-    <t>SO2228626</t>
-  </si>
-  <si>
-    <t>SO2228599</t>
-  </si>
-  <si>
-    <t>SO2228583</t>
-  </si>
-  <si>
-    <t>SO2228564</t>
-  </si>
-  <si>
-    <t>SO2228505</t>
-  </si>
-  <si>
-    <t>SO2228498</t>
-  </si>
-  <si>
-    <t>SO2228472</t>
-  </si>
-  <si>
-    <t>SO2228471</t>
-  </si>
-  <si>
-    <t>SO2228460</t>
-  </si>
-  <si>
-    <t>SO2228438</t>
-  </si>
-  <si>
-    <t>SO2228388</t>
-  </si>
-  <si>
-    <t>SO2228371</t>
-  </si>
-  <si>
-    <t>SO2228341</t>
-  </si>
-  <si>
-    <t>SO2228340</t>
-  </si>
-  <si>
-    <t>SO2228305</t>
-  </si>
-  <si>
-    <t>SO2228298</t>
-  </si>
-  <si>
-    <t>SO2228281</t>
-  </si>
-  <si>
-    <t>SO2228272</t>
-  </si>
-  <si>
-    <t>SO2228267</t>
-  </si>
-  <si>
-    <t>SO2228262</t>
-  </si>
-  <si>
-    <t>SO2228249</t>
-  </si>
-  <si>
-    <t>SO2228247</t>
-  </si>
-  <si>
-    <t>SO2228222</t>
-  </si>
-  <si>
-    <t>SO2228172</t>
-  </si>
-  <si>
-    <t>SO2228167</t>
-  </si>
-  <si>
-    <t>SO2228137</t>
-  </si>
-  <si>
-    <t>SO2228114</t>
-  </si>
-  <si>
-    <t>SO2228108</t>
-  </si>
-  <si>
-    <t>SO2228094</t>
-  </si>
-  <si>
-    <t>SO2228080</t>
-  </si>
-  <si>
-    <t>SO2228052</t>
-  </si>
-  <si>
-    <t>SO2228051</t>
-  </si>
-  <si>
-    <t>SO2228050</t>
-  </si>
-  <si>
-    <t>SO2228044</t>
-  </si>
-  <si>
-    <t>SO2228025</t>
-  </si>
-  <si>
-    <t>SO2228012</t>
-  </si>
-  <si>
-    <t>SO2227957</t>
-  </si>
-  <si>
-    <t>SO2227939</t>
-  </si>
-  <si>
-    <t>SO2227932</t>
-  </si>
-  <si>
-    <t>SO2227911</t>
-  </si>
-  <si>
-    <t>SO2227908</t>
-  </si>
-  <si>
-    <t>SO2227897</t>
-  </si>
-  <si>
-    <t>SO2227889</t>
-  </si>
-  <si>
-    <t>SO2227882</t>
-  </si>
-  <si>
-    <t>SO2227874</t>
-  </si>
-  <si>
-    <t>SO2227872</t>
-  </si>
-  <si>
-    <t>SO2227870</t>
-  </si>
-  <si>
-    <t>SO2227867</t>
-  </si>
-  <si>
-    <t>SO2227866</t>
-  </si>
-  <si>
-    <t>SO2227857</t>
-  </si>
-  <si>
-    <t>SO2227844</t>
-  </si>
-  <si>
-    <t>SO2227837</t>
-  </si>
-  <si>
-    <t>SO2227834</t>
-  </si>
-  <si>
-    <t>SO2227799</t>
-  </si>
-  <si>
-    <t>SO2227798</t>
-  </si>
-  <si>
-    <t>SO2227792</t>
-  </si>
-  <si>
-    <t>SO2227783</t>
-  </si>
-  <si>
-    <t>SO2227777</t>
-  </si>
-  <si>
-    <t>SO2227754</t>
-  </si>
-  <si>
-    <t>SO2227734</t>
-  </si>
-  <si>
-    <t>SO2227733</t>
-  </si>
-  <si>
-    <t>SO2227697</t>
-  </si>
-  <si>
-    <t>SO2227691</t>
-  </si>
-  <si>
-    <t>SO2227673</t>
-  </si>
-  <si>
-    <t>SO2227672</t>
-  </si>
-  <si>
-    <t>SO2227661</t>
-  </si>
-  <si>
-    <t>SO2227660</t>
-  </si>
-  <si>
-    <t>SO2227644</t>
-  </si>
-  <si>
-    <t>SO2227634</t>
-  </si>
-  <si>
-    <t>SO2227621</t>
-  </si>
-  <si>
-    <t>SO2227620</t>
-  </si>
-  <si>
-    <t>SO2227619</t>
-  </si>
-  <si>
-    <t>SO2227617</t>
-  </si>
-  <si>
-    <t>SO2227616</t>
-  </si>
-  <si>
-    <t>SO2227615</t>
-  </si>
-  <si>
-    <t>SO2227614</t>
-  </si>
-  <si>
-    <t>SO2227613</t>
-  </si>
-  <si>
-    <t>SO2227608</t>
-  </si>
-  <si>
-    <t>SO2227607</t>
-  </si>
-  <si>
-    <t>SO2227606</t>
-  </si>
-  <si>
-    <t>SO2227605</t>
-  </si>
-  <si>
-    <t>SO2227604</t>
-  </si>
-  <si>
-    <t>SO2227603</t>
-  </si>
-  <si>
-    <t>SO2227346</t>
-  </si>
-  <si>
-    <t>SO2227317</t>
-  </si>
-  <si>
-    <t>SO2226800</t>
-  </si>
-  <si>
-    <t>SO2226763</t>
-  </si>
-  <si>
-    <t>SO2226724</t>
-  </si>
-  <si>
-    <t>SO2226538</t>
-  </si>
-  <si>
-    <t>SO2226435</t>
-  </si>
-  <si>
-    <t>SO2226433</t>
-  </si>
-  <si>
-    <t>SO2226231</t>
-  </si>
-  <si>
-    <t>SO2226118</t>
-  </si>
-  <si>
-    <t>SO2225986</t>
-  </si>
-  <si>
-    <t>SO2225739</t>
-  </si>
-  <si>
-    <t>SO2224300</t>
+    <t>SO2283240</t>
+  </si>
+  <si>
+    <t>SO2283239</t>
+  </si>
+  <si>
+    <t>SO2283230</t>
+  </si>
+  <si>
+    <t>SO2283217</t>
+  </si>
+  <si>
+    <t>SO2283202</t>
+  </si>
+  <si>
+    <t>SO2283185</t>
+  </si>
+  <si>
+    <t>SO2283168</t>
+  </si>
+  <si>
+    <t>SO2283166</t>
+  </si>
+  <si>
+    <t>SO2283150</t>
+  </si>
+  <si>
+    <t>SO2283149</t>
+  </si>
+  <si>
+    <t>SO2283148</t>
+  </si>
+  <si>
+    <t>SO2283147</t>
+  </si>
+  <si>
+    <t>SO2283124</t>
+  </si>
+  <si>
+    <t>SO2283123</t>
+  </si>
+  <si>
+    <t>SO2283122</t>
+  </si>
+  <si>
+    <t>SO2283121</t>
+  </si>
+  <si>
+    <t>SO2283120</t>
+  </si>
+  <si>
+    <t>SO2283119</t>
+  </si>
+  <si>
+    <t>SO2283118</t>
+  </si>
+  <si>
+    <t>SO2283101</t>
+  </si>
+  <si>
+    <t>SO2283100</t>
+  </si>
+  <si>
+    <t>SO2283099</t>
+  </si>
+  <si>
+    <t>SO2283076</t>
+  </si>
+  <si>
+    <t>SO2283058</t>
+  </si>
+  <si>
+    <t>SO2283035</t>
+  </si>
+  <si>
+    <t>SO2283034</t>
+  </si>
+  <si>
+    <t>SO2283024</t>
+  </si>
+  <si>
+    <t>SO2283023</t>
+  </si>
+  <si>
+    <t>SO2283022</t>
+  </si>
+  <si>
+    <t>SO2283005</t>
+  </si>
+  <si>
+    <t>SO2283004</t>
+  </si>
+  <si>
+    <t>SO2282985</t>
+  </si>
+  <si>
+    <t>SO2282984</t>
+  </si>
+  <si>
+    <t>SO2282982</t>
+  </si>
+  <si>
+    <t>SO2282979</t>
+  </si>
+  <si>
+    <t>SO2282977</t>
+  </si>
+  <si>
+    <t>SO2282967</t>
+  </si>
+  <si>
+    <t>SO2282950</t>
+  </si>
+  <si>
+    <t>SO2282936</t>
+  </si>
+  <si>
+    <t>SO2282934</t>
+  </si>
+  <si>
+    <t>SO2282903</t>
+  </si>
+  <si>
+    <t>SO2282894</t>
+  </si>
+  <si>
+    <t>SO2282893</t>
+  </si>
+  <si>
+    <t>SO2282877</t>
+  </si>
+  <si>
+    <t>SO2282860</t>
+  </si>
+  <si>
+    <t>SO2282859</t>
+  </si>
+  <si>
+    <t>SO2282858</t>
+  </si>
+  <si>
+    <t>SO2282832</t>
+  </si>
+  <si>
+    <t>SO2282831</t>
+  </si>
+  <si>
+    <t>SO2282830</t>
+  </si>
+  <si>
+    <t>SO2282829</t>
+  </si>
+  <si>
+    <t>SO2282797</t>
+  </si>
+  <si>
+    <t>SO2282796</t>
+  </si>
+  <si>
+    <t>SO2282781</t>
+  </si>
+  <si>
+    <t>SO2282780</t>
+  </si>
+  <si>
+    <t>SO2282779</t>
+  </si>
+  <si>
+    <t>SO2282755</t>
+  </si>
+  <si>
+    <t>SO2282741</t>
+  </si>
+  <si>
+    <t>SO2282740</t>
+  </si>
+  <si>
+    <t>SO2282739</t>
+  </si>
+  <si>
+    <t>SO2282707</t>
+  </si>
+  <si>
+    <t>SO2282677</t>
+  </si>
+  <si>
+    <t>SO2282669</t>
+  </si>
+  <si>
+    <t>SO2282668</t>
+  </si>
+  <si>
+    <t>SO2281526</t>
+  </si>
+  <si>
+    <t>SO2282637</t>
+  </si>
+  <si>
+    <t>SO2282636</t>
+  </si>
+  <si>
+    <t>SO2282608</t>
+  </si>
+  <si>
+    <t>SO2282607</t>
+  </si>
+  <si>
+    <t>SO2282590</t>
+  </si>
+  <si>
+    <t>SO2282557</t>
+  </si>
+  <si>
+    <t>SO2282532</t>
+  </si>
+  <si>
+    <t>SO2282523</t>
+  </si>
+  <si>
+    <t>SO2282522</t>
+  </si>
+  <si>
+    <t>SO2282489</t>
+  </si>
+  <si>
+    <t>SO2282480</t>
+  </si>
+  <si>
+    <t>SO2282479</t>
+  </si>
+  <si>
+    <t>SO2282478</t>
+  </si>
+  <si>
+    <t>SO2282461</t>
+  </si>
+  <si>
+    <t>SO2282451</t>
+  </si>
+  <si>
+    <t>SO2282449</t>
+  </si>
+  <si>
+    <t>SO2280403</t>
+  </si>
+  <si>
+    <t>SO2282420</t>
+  </si>
+  <si>
+    <t>SO2282399</t>
+  </si>
+  <si>
+    <t>SO2282398</t>
+  </si>
+  <si>
+    <t>SO2282367</t>
+  </si>
+  <si>
+    <t>SO2282366</t>
+  </si>
+  <si>
+    <t>SO2282357</t>
+  </si>
+  <si>
+    <t>SO2282326</t>
+  </si>
+  <si>
+    <t>SO2282306</t>
+  </si>
+  <si>
+    <t>SO2266027</t>
+  </si>
+  <si>
+    <t>SO2270582</t>
+  </si>
+  <si>
+    <t>SO2282293</t>
+  </si>
+  <si>
+    <t>SO2282280</t>
+  </si>
+  <si>
+    <t>SO2282273</t>
+  </si>
+  <si>
+    <t>SO2282252</t>
+  </si>
+  <si>
+    <t>SO2282250</t>
+  </si>
+  <si>
+    <t>SO2282234</t>
+  </si>
+  <si>
+    <t>SO2282229</t>
+  </si>
+  <si>
+    <t>SO2282228</t>
+  </si>
+  <si>
+    <t>SO2282181</t>
+  </si>
+  <si>
+    <t>SO2282165</t>
+  </si>
+  <si>
+    <t>SO2282147</t>
+  </si>
+  <si>
+    <t>SO2282146</t>
+  </si>
+  <si>
+    <t>SO2282145</t>
+  </si>
+  <si>
+    <t>SO2282132</t>
+  </si>
+  <si>
+    <t>SO2282131</t>
+  </si>
+  <si>
+    <t>SO2282128</t>
+  </si>
+  <si>
+    <t>SO2282095</t>
+  </si>
+  <si>
+    <t>SO2282036</t>
+  </si>
+  <si>
+    <t>SO2282025</t>
+  </si>
+  <si>
+    <t>SO2281994</t>
+  </si>
+  <si>
+    <t>SO2281982</t>
+  </si>
+  <si>
+    <t>SO2281976</t>
+  </si>
+  <si>
+    <t>SO2281954</t>
+  </si>
+  <si>
+    <t>SO2281953</t>
+  </si>
+  <si>
+    <t>SO2281936</t>
+  </si>
+  <si>
+    <t>SO2281935</t>
+  </si>
+  <si>
+    <t>SO2281934</t>
+  </si>
+  <si>
+    <t>SO2281906</t>
+  </si>
+  <si>
+    <t>SO2281895</t>
+  </si>
+  <si>
+    <t>SO2281879</t>
+  </si>
+  <si>
+    <t>SO2281878</t>
+  </si>
+  <si>
+    <t>SO2281857</t>
+  </si>
+  <si>
+    <t>SO2281856</t>
+  </si>
+  <si>
+    <t>SO2281845</t>
+  </si>
+  <si>
+    <t>SO2281844</t>
+  </si>
+  <si>
+    <t>SO2281842</t>
+  </si>
+  <si>
+    <t>SO2281786</t>
+  </si>
+  <si>
+    <t>SO2281785</t>
+  </si>
+  <si>
+    <t>SO2281774</t>
+  </si>
+  <si>
+    <t>SO2281755</t>
+  </si>
+  <si>
+    <t>SO2281720</t>
+  </si>
+  <si>
+    <t>SO2281696</t>
+  </si>
+  <si>
+    <t>SO2281695</t>
+  </si>
+  <si>
+    <t>SO2281665</t>
+  </si>
+  <si>
+    <t>SO2281631</t>
+  </si>
+  <si>
+    <t>SO2281629</t>
+  </si>
+  <si>
+    <t>SO2281595</t>
+  </si>
+  <si>
+    <t>SO2281594</t>
+  </si>
+  <si>
+    <t>SO2281593</t>
+  </si>
+  <si>
+    <t>SO2281591</t>
+  </si>
+  <si>
+    <t>SO2281578</t>
+  </si>
+  <si>
+    <t>SO2281569</t>
+  </si>
+  <si>
+    <t>SO2281541</t>
+  </si>
+  <si>
+    <t>SO2281528</t>
+  </si>
+  <si>
+    <t>SO2281525</t>
+  </si>
+  <si>
+    <t>SO2281503</t>
+  </si>
+  <si>
+    <t>SO2281502</t>
+  </si>
+  <si>
+    <t>SO2281501</t>
+  </si>
+  <si>
+    <t>SO2281500</t>
+  </si>
+  <si>
+    <t>SO2281499</t>
+  </si>
+  <si>
+    <t>SO2281485</t>
+  </si>
+  <si>
+    <t>SO2281484</t>
+  </si>
+  <si>
+    <t>SO2281476</t>
+  </si>
+  <si>
+    <t>SO2281447</t>
+  </si>
+  <si>
+    <t>SO2281377</t>
+  </si>
+  <si>
+    <t>SO2281369</t>
+  </si>
+  <si>
+    <t>SO2281368</t>
+  </si>
+  <si>
+    <t>SO2281353</t>
+  </si>
+  <si>
+    <t>SO2281352</t>
+  </si>
+  <si>
+    <t>SO2281305</t>
+  </si>
+  <si>
+    <t>SO2281289</t>
+  </si>
+  <si>
+    <t>SO2281288</t>
+  </si>
+  <si>
+    <t>SO2281264</t>
+  </si>
+  <si>
+    <t>SO2281263</t>
+  </si>
+  <si>
+    <t>SO2281221</t>
+  </si>
+  <si>
+    <t>SO2281220</t>
+  </si>
+  <si>
+    <t>SO2281188</t>
+  </si>
+  <si>
+    <t>SO2281182</t>
+  </si>
+  <si>
+    <t>SO2281181</t>
+  </si>
+  <si>
+    <t>SO2281180</t>
+  </si>
+  <si>
+    <t>SO2281135</t>
+  </si>
+  <si>
+    <t>SO2281134</t>
+  </si>
+  <si>
+    <t>SO2281125</t>
+  </si>
+  <si>
+    <t>SO2281124</t>
+  </si>
+  <si>
+    <t>SO2281123</t>
+  </si>
+  <si>
+    <t>SO2281106</t>
+  </si>
+  <si>
+    <t>SO2281105</t>
+  </si>
+  <si>
+    <t>SO2281104</t>
+  </si>
+  <si>
+    <t>SO2281095</t>
+  </si>
+  <si>
+    <t>SO2281085</t>
+  </si>
+  <si>
+    <t>SO2281059</t>
+  </si>
+  <si>
+    <t>SO2281024</t>
+  </si>
+  <si>
+    <t>SO2281014</t>
+  </si>
+  <si>
+    <t>SO2281013</t>
+  </si>
+  <si>
+    <t>SO2281011</t>
+  </si>
+  <si>
+    <t>SO2281010</t>
+  </si>
+  <si>
+    <t>SO2281009</t>
+  </si>
+  <si>
+    <t>SO2281008</t>
+  </si>
+  <si>
+    <t>SO2281007</t>
+  </si>
+  <si>
+    <t>SO2280615</t>
+  </si>
+  <si>
+    <t>SO2280983</t>
+  </si>
+  <si>
+    <t>SO2280969</t>
+  </si>
+  <si>
+    <t>SO2280940</t>
+  </si>
+  <si>
+    <t>SO2280939</t>
+  </si>
+  <si>
+    <t>SO2280929</t>
+  </si>
+  <si>
+    <t>SO2280915</t>
+  </si>
+  <si>
+    <t>SO2280914</t>
+  </si>
+  <si>
+    <t>SO2280913</t>
+  </si>
+  <si>
+    <t>SO2280889</t>
+  </si>
+  <si>
+    <t>SO2280888</t>
+  </si>
+  <si>
+    <t>SO2280887</t>
+  </si>
+  <si>
+    <t>SO2280886</t>
+  </si>
+  <si>
+    <t>SO2280884</t>
+  </si>
+  <si>
+    <t>SO2280859</t>
+  </si>
+  <si>
+    <t>SO2280858</t>
+  </si>
+  <si>
+    <t>SO2280857</t>
+  </si>
+  <si>
+    <t>SO2280856</t>
+  </si>
+  <si>
+    <t>SO2280837</t>
+  </si>
+  <si>
+    <t>SO2280836</t>
+  </si>
+  <si>
+    <t>SO2280835</t>
+  </si>
+  <si>
+    <t>SO2280834</t>
+  </si>
+  <si>
+    <t>SO2280806</t>
+  </si>
+  <si>
+    <t>SO2280805</t>
+  </si>
+  <si>
+    <t>SO2280794</t>
+  </si>
+  <si>
+    <t>SO2280793</t>
+  </si>
+  <si>
+    <t>SO2280747</t>
+  </si>
+  <si>
+    <t>SO2280746</t>
+  </si>
+  <si>
+    <t>SO2280744</t>
+  </si>
+  <si>
+    <t>SO2280709</t>
+  </si>
+  <si>
+    <t>SO2280706</t>
+  </si>
+  <si>
+    <t>SO2280690</t>
+  </si>
+  <si>
+    <t>SO2280689</t>
+  </si>
+  <si>
+    <t>SO2280652</t>
+  </si>
+  <si>
+    <t>SO2280651</t>
+  </si>
+  <si>
+    <t>SO2280633</t>
+  </si>
+  <si>
+    <t>SO2280617</t>
+  </si>
+  <si>
+    <t>SO2280616</t>
+  </si>
+  <si>
+    <t>SO2280614</t>
+  </si>
+  <si>
+    <t>SO2280555</t>
+  </si>
+  <si>
+    <t>SO2280498</t>
+  </si>
+  <si>
+    <t>SO2280476</t>
+  </si>
+  <si>
+    <t>SO2280406</t>
+  </si>
+  <si>
+    <t>SO2280404</t>
+  </si>
+  <si>
+    <t>SO2280402</t>
+  </si>
+  <si>
+    <t>SO2280371</t>
+  </si>
+  <si>
+    <t>SO2280369</t>
+  </si>
+  <si>
+    <t>SO2280341</t>
+  </si>
+  <si>
+    <t>SO2279026</t>
+  </si>
+  <si>
+    <t>SO2280305</t>
+  </si>
+  <si>
+    <t>SO2280300</t>
+  </si>
+  <si>
+    <t>SO2280299</t>
+  </si>
+  <si>
+    <t>SO2280275</t>
+  </si>
+  <si>
+    <t>SO2280274</t>
+  </si>
+  <si>
+    <t>SO2280260</t>
+  </si>
+  <si>
+    <t>SO2280251</t>
+  </si>
+  <si>
+    <t>SO2280250</t>
+  </si>
+  <si>
+    <t>SO2280249</t>
+  </si>
+  <si>
+    <t>SO2280239</t>
+  </si>
+  <si>
+    <t>SO2280212</t>
+  </si>
+  <si>
+    <t>SO2280191</t>
+  </si>
+  <si>
+    <t>SO2280190</t>
+  </si>
+  <si>
+    <t>SO2280169</t>
+  </si>
+  <si>
+    <t>SO2280161</t>
+  </si>
+  <si>
+    <t>SO2280160</t>
+  </si>
+  <si>
+    <t>SO2280132</t>
+  </si>
+  <si>
+    <t>SO2280106</t>
+  </si>
+  <si>
+    <t>SO2280069</t>
+  </si>
+  <si>
+    <t>SO2280048</t>
+  </si>
+  <si>
+    <t>SO2280023</t>
+  </si>
+  <si>
+    <t>SO2280010</t>
+  </si>
+  <si>
+    <t>SO2280009</t>
+  </si>
+  <si>
+    <t>SO2279997</t>
+  </si>
+  <si>
+    <t>SO2279936</t>
+  </si>
+  <si>
+    <t>SO2279894</t>
+  </si>
+  <si>
+    <t>SO2279893</t>
+  </si>
+  <si>
+    <t>SO2279891</t>
+  </si>
+  <si>
+    <t>SO2267058</t>
+  </si>
+  <si>
+    <t>SO2272714</t>
+  </si>
+  <si>
+    <t>SO2279867</t>
+  </si>
+  <si>
+    <t>SO2279865</t>
+  </si>
+  <si>
+    <t>SO2279850</t>
+  </si>
+  <si>
+    <t>SO2279846</t>
+  </si>
+  <si>
+    <t>SO2279845</t>
+  </si>
+  <si>
+    <t>SO2279835</t>
+  </si>
+  <si>
+    <t>SO2279833</t>
+  </si>
+  <si>
+    <t>SO2279832</t>
+  </si>
+  <si>
+    <t>SO2279824</t>
+  </si>
+  <si>
+    <t>SO2279819</t>
+  </si>
+  <si>
+    <t>SO2279818</t>
+  </si>
+  <si>
+    <t>SO2279810</t>
+  </si>
+  <si>
+    <t>SO2279797</t>
+  </si>
+  <si>
+    <t>SO2279796</t>
+  </si>
+  <si>
+    <t>SO2279780</t>
+  </si>
+  <si>
+    <t>SO2279761</t>
+  </si>
+  <si>
+    <t>SO2279743</t>
+  </si>
+  <si>
+    <t>SO2279736</t>
+  </si>
+  <si>
+    <t>SO2279709</t>
+  </si>
+  <si>
+    <t>SO2279708</t>
+  </si>
+  <si>
+    <t>SO2279707</t>
+  </si>
+  <si>
+    <t>SO2279642</t>
+  </si>
+  <si>
+    <t>SO2279641</t>
+  </si>
+  <si>
+    <t>SO2279609</t>
+  </si>
+  <si>
+    <t>SO2279562</t>
+  </si>
+  <si>
+    <t>SO2279561</t>
+  </si>
+  <si>
+    <t>SO2279543</t>
+  </si>
+  <si>
+    <t>SO2279534</t>
+  </si>
+  <si>
+    <t>SO2279508</t>
+  </si>
+  <si>
+    <t>SO2279490</t>
+  </si>
+  <si>
+    <t>SO2279489</t>
+  </si>
+  <si>
+    <t>SO2279456</t>
+  </si>
+  <si>
+    <t>SO2279455</t>
+  </si>
+  <si>
+    <t>SO2279454</t>
+  </si>
+  <si>
+    <t>SO2279443</t>
+  </si>
+  <si>
+    <t>SO2279442</t>
+  </si>
+  <si>
+    <t>SO2279430</t>
+  </si>
+  <si>
+    <t>SO2279398</t>
+  </si>
+  <si>
+    <t>SO2279382</t>
+  </si>
+  <si>
+    <t>SO2279380</t>
+  </si>
+  <si>
+    <t>SO2279350</t>
+  </si>
+  <si>
+    <t>SO2279339</t>
+  </si>
+  <si>
+    <t>SO2279275</t>
+  </si>
+  <si>
+    <t>SO2279273</t>
+  </si>
+  <si>
+    <t>SO2279260</t>
+  </si>
+  <si>
+    <t>SO2279259</t>
+  </si>
+  <si>
+    <t>SO2279233</t>
+  </si>
+  <si>
+    <t>SO2279219</t>
+  </si>
+  <si>
+    <t>SO2279218</t>
+  </si>
+  <si>
+    <t>SO2279217</t>
+  </si>
+  <si>
+    <t>SO2279197</t>
+  </si>
+  <si>
+    <t>SO2279169</t>
+  </si>
+  <si>
+    <t>SO2279144</t>
+  </si>
+  <si>
+    <t>SO2279143</t>
+  </si>
+  <si>
+    <t>SO2279142</t>
+  </si>
+  <si>
+    <t>SO2279134</t>
+  </si>
+  <si>
+    <t>SO2279133</t>
+  </si>
+  <si>
+    <t>SO2279132</t>
+  </si>
+  <si>
+    <t>SO2279131</t>
+  </si>
+  <si>
+    <t>SO2279130</t>
+  </si>
+  <si>
+    <t>SO2279080</t>
+  </si>
+  <si>
+    <t>SO2279079</t>
+  </si>
+  <si>
+    <t>SO2279058</t>
+  </si>
+  <si>
+    <t>SO2279057</t>
+  </si>
+  <si>
+    <t>SO2279025</t>
+  </si>
+  <si>
+    <t>SO2278998</t>
+  </si>
+  <si>
+    <t>SO2278997</t>
+  </si>
+  <si>
+    <t>SO2278966</t>
+  </si>
+  <si>
+    <t>SO2278965</t>
+  </si>
+  <si>
+    <t>SO2278948</t>
+  </si>
+  <si>
+    <t>SO2278917</t>
+  </si>
+  <si>
+    <t>SO2278916</t>
+  </si>
+  <si>
+    <t>SO2278915</t>
+  </si>
+  <si>
+    <t>SO2278914</t>
+  </si>
+  <si>
+    <t>SO2278894</t>
+  </si>
+  <si>
+    <t>SO2278886</t>
+  </si>
+  <si>
+    <t>SO2278884</t>
+  </si>
+  <si>
+    <t>SO2278883</t>
+  </si>
+  <si>
+    <t>SO2278868</t>
+  </si>
+  <si>
+    <t>SO2278857</t>
+  </si>
+  <si>
+    <t>SO2278818</t>
+  </si>
+  <si>
+    <t>SO2278817</t>
+  </si>
+  <si>
+    <t>SO2278782</t>
+  </si>
+  <si>
+    <t>SO2278771</t>
+  </si>
+  <si>
+    <t>SO2278770</t>
+  </si>
+  <si>
+    <t>SO2278760</t>
+  </si>
+  <si>
+    <t>SO2278742</t>
+  </si>
+  <si>
+    <t>SO2278732</t>
+  </si>
+  <si>
+    <t>SO2278671</t>
+  </si>
+  <si>
+    <t>SO2278670</t>
+  </si>
+  <si>
+    <t>SO2278637</t>
+  </si>
+  <si>
+    <t>SO2278636</t>
+  </si>
+  <si>
+    <t>SO2278619</t>
+  </si>
+  <si>
+    <t>SO2278585</t>
+  </si>
+  <si>
+    <t>SO2278567</t>
+  </si>
+  <si>
+    <t>SO2278565</t>
+  </si>
+  <si>
+    <t>SO2278552</t>
+  </si>
+  <si>
+    <t>SO2278550</t>
+  </si>
+  <si>
+    <t>SO2278527</t>
+  </si>
+  <si>
+    <t>SO2278517</t>
+  </si>
+  <si>
+    <t>SO2278516</t>
+  </si>
+  <si>
+    <t>SO2278515</t>
+  </si>
+  <si>
+    <t>SO2278491</t>
+  </si>
+  <si>
+    <t>SO2278490</t>
+  </si>
+  <si>
+    <t>SO2278471</t>
+  </si>
+  <si>
+    <t>SO2278470</t>
+  </si>
+  <si>
+    <t>SO2278469</t>
+  </si>
+  <si>
+    <t>SO2278468</t>
+  </si>
+  <si>
+    <t>SO2278449</t>
+  </si>
+  <si>
+    <t>SO2278407</t>
+  </si>
+  <si>
+    <t>SO2278406</t>
+  </si>
+  <si>
+    <t>SO2278348</t>
+  </si>
+  <si>
+    <t>SO2278396</t>
+  </si>
+  <si>
+    <t>SO2278365</t>
+  </si>
+  <si>
+    <t>SO2278364</t>
+  </si>
+  <si>
+    <t>SO2278353</t>
+  </si>
+  <si>
+    <t>SO2278352</t>
+  </si>
+  <si>
+    <t>SO2278351</t>
+  </si>
+  <si>
+    <t>SO2278350</t>
+  </si>
+  <si>
+    <t>SO2278349</t>
+  </si>
+  <si>
+    <t>SO2278309</t>
+  </si>
+  <si>
+    <t>SO2278293</t>
+  </si>
+  <si>
+    <t>SO2278292</t>
+  </si>
+  <si>
+    <t>SO2278291</t>
+  </si>
+  <si>
+    <t>SO2278262</t>
+  </si>
+  <si>
+    <t>SO2278261</t>
+  </si>
+  <si>
+    <t>SO2278260</t>
+  </si>
+  <si>
+    <t>SO2278259</t>
+  </si>
+  <si>
+    <t>SO2278206</t>
+  </si>
+  <si>
+    <t>SO2278205</t>
+  </si>
+  <si>
+    <t>SO2278182</t>
+  </si>
+  <si>
+    <t>SO2278181</t>
+  </si>
+  <si>
+    <t>SO2278180</t>
+  </si>
+  <si>
+    <t>SO2278179</t>
+  </si>
+  <si>
+    <t>SO2278178</t>
+  </si>
+  <si>
+    <t>SO2278156</t>
+  </si>
+  <si>
+    <t>SO2278121</t>
+  </si>
+  <si>
+    <t>SO2278031</t>
+  </si>
+  <si>
+    <t>SO2278030</t>
+  </si>
+  <si>
+    <t>SO2278014</t>
+  </si>
+  <si>
+    <t>SO2278001</t>
+  </si>
+  <si>
+    <t>SO2277966</t>
+  </si>
+  <si>
+    <t>SO2277948</t>
+  </si>
+  <si>
+    <t>SO2277947</t>
+  </si>
+  <si>
+    <t>SO2277946</t>
+  </si>
+  <si>
+    <t>SO2277920</t>
+  </si>
+  <si>
+    <t>SO2277919</t>
+  </si>
+  <si>
+    <t>SO2277892</t>
+  </si>
+  <si>
+    <t>SO2277822</t>
+  </si>
+  <si>
+    <t>SO2277811</t>
+  </si>
+  <si>
+    <t>SO2277810</t>
+  </si>
+  <si>
+    <t>SO2277785</t>
+  </si>
+  <si>
+    <t>SO2277784</t>
+  </si>
+  <si>
+    <t>SO2277750</t>
+  </si>
+  <si>
+    <t>SO2277724</t>
+  </si>
+  <si>
+    <t>SO2277723</t>
+  </si>
+  <si>
+    <t>SO2277712</t>
+  </si>
+  <si>
+    <t>SO2277711</t>
+  </si>
+  <si>
+    <t>SO2277709</t>
+  </si>
+  <si>
+    <t>SO2277708</t>
+  </si>
+  <si>
+    <t>SO2277707</t>
+  </si>
+  <si>
+    <t>SO2277684</t>
+  </si>
+  <si>
+    <t>SO2277606</t>
+  </si>
+  <si>
+    <t>SO2277586</t>
+  </si>
+  <si>
+    <t>SO2277585</t>
+  </si>
+  <si>
+    <t>SO2277576</t>
+  </si>
+  <si>
+    <t>SO2277560</t>
+  </si>
+  <si>
+    <t>SO2277539</t>
+  </si>
+  <si>
+    <t>SO2277538</t>
+  </si>
+  <si>
+    <t>SO2277521</t>
+  </si>
+  <si>
+    <t>SO2277505</t>
+  </si>
+  <si>
+    <t>SO2276247</t>
+  </si>
+  <si>
+    <t>SO2277471</t>
+  </si>
+  <si>
+    <t>SO2277460</t>
+  </si>
+  <si>
+    <t>SO2277409</t>
+  </si>
+  <si>
+    <t>SO2277408</t>
+  </si>
+  <si>
+    <t>SO2277407</t>
+  </si>
+  <si>
+    <t>SO2277387</t>
+  </si>
+  <si>
+    <t>SO2277386</t>
+  </si>
+  <si>
+    <t>SO2277380</t>
+  </si>
+  <si>
+    <t>SO2277364</t>
+  </si>
+  <si>
+    <t>SO2277363</t>
+  </si>
+  <si>
+    <t>SO2277352</t>
+  </si>
+  <si>
+    <t>SO2277351</t>
+  </si>
+  <si>
+    <t>SO2277337</t>
+  </si>
+  <si>
+    <t>SO2277316</t>
+  </si>
+  <si>
+    <t>SO2277304</t>
+  </si>
+  <si>
+    <t>SO2277291</t>
+  </si>
+  <si>
+    <t>SO2277285</t>
+  </si>
+  <si>
+    <t>SO2277260</t>
+  </si>
+  <si>
+    <t>SO2277241</t>
+  </si>
+  <si>
+    <t>SO2270406</t>
+  </si>
+  <si>
+    <t>SO2265368</t>
+  </si>
+  <si>
+    <t>SO2270378</t>
+  </si>
+  <si>
+    <t>SO2277231</t>
+  </si>
+  <si>
+    <t>SO2277222</t>
+  </si>
+  <si>
+    <t>SO2277218</t>
+  </si>
+  <si>
+    <t>SO2277159</t>
+  </si>
+  <si>
+    <t>SO2277145</t>
+  </si>
+  <si>
+    <t>SO2277144</t>
+  </si>
+  <si>
+    <t>SO2277123</t>
+  </si>
+  <si>
+    <t>SO2277100</t>
+  </si>
+  <si>
+    <t>SO2277071</t>
+  </si>
+  <si>
+    <t>SO2277069</t>
+  </si>
+  <si>
+    <t>SO2277064</t>
+  </si>
+  <si>
+    <t>SO2276985</t>
+  </si>
+  <si>
+    <t>SO2276984</t>
+  </si>
+  <si>
+    <t>SO2276983</t>
+  </si>
+  <si>
+    <t>SO2276981</t>
+  </si>
+  <si>
+    <t>SO2276955</t>
+  </si>
+  <si>
+    <t>SO2276939</t>
+  </si>
+  <si>
+    <t>SO2276936</t>
+  </si>
+  <si>
+    <t>SO2276886</t>
+  </si>
+  <si>
+    <t>SO2276885</t>
+  </si>
+  <si>
+    <t>SO2276884</t>
+  </si>
+  <si>
+    <t>SO2276863</t>
+  </si>
+  <si>
+    <t>SO2276862</t>
+  </si>
+  <si>
+    <t>SO2276861</t>
+  </si>
+  <si>
+    <t>SO2276817</t>
+  </si>
+  <si>
+    <t>SO2276816</t>
+  </si>
+  <si>
+    <t>SO2276793</t>
+  </si>
+  <si>
+    <t>SO2276792</t>
+  </si>
+  <si>
+    <t>SO2276791</t>
+  </si>
+  <si>
+    <t>SO2276790</t>
+  </si>
+  <si>
+    <t>SO2276762</t>
+  </si>
+  <si>
+    <t>SO2276745</t>
+  </si>
+  <si>
+    <t>SO2276743</t>
+  </si>
+  <si>
+    <t>SO2276723</t>
+  </si>
+  <si>
+    <t>SO2276722</t>
+  </si>
+  <si>
+    <t>SO2276721</t>
+  </si>
+  <si>
+    <t>SO2276679</t>
+  </si>
+  <si>
+    <t>SO2276677</t>
+  </si>
+  <si>
+    <t>SO2276661</t>
+  </si>
+  <si>
+    <t>SO2276648</t>
+  </si>
+  <si>
+    <t>SO2276647</t>
+  </si>
+  <si>
+    <t>SO2276624</t>
+  </si>
+  <si>
+    <t>SO2276623</t>
+  </si>
+  <si>
+    <t>SO2276622</t>
+  </si>
+  <si>
+    <t>SO2276613</t>
+  </si>
+  <si>
+    <t>SO2276610</t>
+  </si>
+  <si>
+    <t>SO2276609</t>
+  </si>
+  <si>
+    <t>SO2276585</t>
+  </si>
+  <si>
+    <t>SO2276575</t>
+  </si>
+  <si>
+    <t>SO2276574</t>
+  </si>
+  <si>
+    <t>SO2276561</t>
+  </si>
+  <si>
+    <t>SO2276547</t>
+  </si>
+  <si>
+    <t>SO2276546</t>
+  </si>
+  <si>
+    <t>SO2276522</t>
+  </si>
+  <si>
+    <t>SO2276512</t>
+  </si>
+  <si>
+    <t>SO2276502</t>
+  </si>
+  <si>
+    <t>SO2276482</t>
+  </si>
+  <si>
+    <t>SO2276473</t>
+  </si>
+  <si>
+    <t>SO2276472</t>
+  </si>
+  <si>
+    <t>SO2276471</t>
+  </si>
+  <si>
+    <t>SO2276470</t>
+  </si>
+  <si>
+    <t>SO2276445</t>
+  </si>
+  <si>
+    <t>SO2276420</t>
+  </si>
+  <si>
+    <t>SO2276418</t>
+  </si>
+  <si>
+    <t>SO2276417</t>
+  </si>
+  <si>
+    <t>SO2276393</t>
+  </si>
+  <si>
+    <t>SO2276392</t>
+  </si>
+  <si>
+    <t>SO2276390</t>
+  </si>
+  <si>
+    <t>SO2276388</t>
+  </si>
+  <si>
+    <t>SO2276375</t>
+  </si>
+  <si>
+    <t>SO2276374</t>
+  </si>
+  <si>
+    <t>SO2276351</t>
+  </si>
+  <si>
+    <t>SO2276333</t>
+  </si>
+  <si>
+    <t>SO2276331</t>
+  </si>
+  <si>
+    <t>SO2276270</t>
+  </si>
+  <si>
+    <t>SO2276251</t>
+  </si>
+  <si>
+    <t>SO2276250</t>
+  </si>
+  <si>
+    <t>SO2276249</t>
+  </si>
+  <si>
+    <t>SO2276248</t>
+  </si>
+  <si>
+    <t>SO2276246</t>
+  </si>
+  <si>
+    <t>SO2276245</t>
+  </si>
+  <si>
+    <t>SO2276244</t>
+  </si>
+  <si>
+    <t>SO2276230</t>
+  </si>
+  <si>
+    <t>SO2276209</t>
+  </si>
+  <si>
+    <t>SO2276190</t>
+  </si>
+  <si>
+    <t>SO2276189</t>
+  </si>
+  <si>
+    <t>SO2276188</t>
+  </si>
+  <si>
+    <t>SO2276129</t>
+  </si>
+  <si>
+    <t>SO2276114</t>
+  </si>
+  <si>
+    <t>SO2276103</t>
+  </si>
+  <si>
+    <t>SO2276047</t>
+  </si>
+  <si>
+    <t>SO2276046</t>
+  </si>
+  <si>
+    <t>SO2276045</t>
+  </si>
+  <si>
+    <t>SO2276028</t>
+  </si>
+  <si>
+    <t>SO2276027</t>
+  </si>
+  <si>
+    <t>SO2276008</t>
+  </si>
+  <si>
+    <t>SO2275964</t>
+  </si>
+  <si>
+    <t>SO2275963</t>
+  </si>
+  <si>
+    <t>SO2275962</t>
+  </si>
+  <si>
+    <t>SO2275943</t>
+  </si>
+  <si>
+    <t>SO2275935</t>
+  </si>
+  <si>
+    <t>SO2275934</t>
+  </si>
+  <si>
+    <t>SO2275933</t>
+  </si>
+  <si>
+    <t>SO2275920</t>
+  </si>
+  <si>
+    <t>SO2275882</t>
+  </si>
+  <si>
+    <t>SO2275881</t>
+  </si>
+  <si>
+    <t>SO2275880</t>
+  </si>
+  <si>
+    <t>SO2275868</t>
+  </si>
+  <si>
+    <t>SO2275867</t>
+  </si>
+  <si>
+    <t>SO2275866</t>
+  </si>
+  <si>
+    <t>SO2275784</t>
+  </si>
+  <si>
+    <t>SO2275774</t>
+  </si>
+  <si>
+    <t>SO2275751</t>
+  </si>
+  <si>
+    <t>SO2275750</t>
+  </si>
+  <si>
+    <t>SO2275719</t>
+  </si>
+  <si>
+    <t>SO2275718</t>
+  </si>
+  <si>
+    <t>SO2275710</t>
+  </si>
+  <si>
+    <t>SO2275677</t>
+  </si>
+  <si>
+    <t>SO2275676</t>
+  </si>
+  <si>
+    <t>SO2275675</t>
+  </si>
+  <si>
+    <t>SO2275638</t>
+  </si>
+  <si>
+    <t>SO2275637</t>
+  </si>
+  <si>
+    <t>SO2275636</t>
+  </si>
+  <si>
+    <t>SO2275570</t>
+  </si>
+  <si>
+    <t>SO2275539</t>
+  </si>
+  <si>
+    <t>SO2275538</t>
+  </si>
+  <si>
+    <t>SO2275524</t>
+  </si>
+  <si>
+    <t>SO2275523</t>
+  </si>
+  <si>
+    <t>SO2275509</t>
+  </si>
+  <si>
+    <t>SO2275491</t>
+  </si>
+  <si>
+    <t>SO2275468</t>
+  </si>
+  <si>
+    <t>SO2275467</t>
+  </si>
+  <si>
+    <t>SO2275466</t>
+  </si>
+  <si>
+    <t>SO2275459</t>
+  </si>
+  <si>
+    <t>SO2275458</t>
+  </si>
+  <si>
+    <t>SO2275457</t>
+  </si>
+  <si>
+    <t>SO2275425</t>
+  </si>
+  <si>
+    <t>SO2275392</t>
+  </si>
+  <si>
+    <t>SO2275319</t>
+  </si>
+  <si>
+    <t>SO2275311</t>
+  </si>
+  <si>
+    <t>SO2275294</t>
+  </si>
+  <si>
+    <t>SO2275270</t>
+  </si>
+  <si>
+    <t>SO2275269</t>
+  </si>
+  <si>
+    <t>SO2275268</t>
+  </si>
+  <si>
+    <t>SO2275267</t>
+  </si>
+  <si>
+    <t>SO2275243</t>
+  </si>
+  <si>
+    <t>SO2275212</t>
+  </si>
+  <si>
+    <t>SO2275211</t>
+  </si>
+  <si>
+    <t>SO2275197</t>
+  </si>
+  <si>
+    <t>SO2275196</t>
+  </si>
+  <si>
+    <t>SO2275195</t>
+  </si>
+  <si>
+    <t>SO2275194</t>
+  </si>
+  <si>
+    <t>SO2275192</t>
+  </si>
+  <si>
+    <t>SO2275175</t>
+  </si>
+  <si>
+    <t>SO2275140</t>
+  </si>
+  <si>
+    <t>SO2275139</t>
+  </si>
+  <si>
+    <t>SO2275138</t>
+  </si>
+  <si>
+    <t>SO2275123</t>
+  </si>
+  <si>
+    <t>SO2275091</t>
+  </si>
+  <si>
+    <t>SO2275090</t>
+  </si>
+  <si>
+    <t>SO2275079</t>
+  </si>
+  <si>
+    <t>SO2275067</t>
+  </si>
+  <si>
+    <t>SO2275066</t>
+  </si>
+  <si>
+    <t>SO2275065</t>
+  </si>
+  <si>
+    <t>SO2275063</t>
+  </si>
+  <si>
+    <t>SO2275043</t>
+  </si>
+  <si>
+    <t>SO2275042</t>
+  </si>
+  <si>
+    <t>SO2275026</t>
+  </si>
+  <si>
+    <t>SO2275025</t>
+  </si>
+  <si>
+    <t>SO2274979</t>
+  </si>
+  <si>
+    <t>SO2274978</t>
+  </si>
+  <si>
+    <t>SO2274977</t>
+  </si>
+  <si>
+    <t>SO2274967</t>
+  </si>
+  <si>
+    <t>SO2274965</t>
+  </si>
+  <si>
+    <t>SO2273690</t>
+  </si>
+  <si>
+    <t>SO2274930</t>
+  </si>
+  <si>
+    <t>SO2274929</t>
+  </si>
+  <si>
+    <t>SO2274928</t>
+  </si>
+  <si>
+    <t>SO2274927</t>
+  </si>
+  <si>
+    <t>SO2274002</t>
+  </si>
+  <si>
+    <t>SO2274893</t>
+  </si>
+  <si>
+    <t>SO2274880</t>
+  </si>
+  <si>
+    <t>SO2274879</t>
+  </si>
+  <si>
+    <t>SO2274878</t>
+  </si>
+  <si>
+    <t>SO2274877</t>
+  </si>
+  <si>
+    <t>SO2274864</t>
+  </si>
+  <si>
+    <t>SO2274861</t>
+  </si>
+  <si>
+    <t>SO2274841</t>
+  </si>
+  <si>
+    <t>SO2274835</t>
+  </si>
+  <si>
+    <t>SO2274833</t>
+  </si>
+  <si>
+    <t>SO2274832</t>
+  </si>
+  <si>
+    <t>SO2274808</t>
+  </si>
+  <si>
+    <t>SO2274807</t>
+  </si>
+  <si>
+    <t>SO2274805</t>
+  </si>
+  <si>
+    <t>SO2274804</t>
+  </si>
+  <si>
+    <t>SO2274795</t>
+  </si>
+  <si>
+    <t>SO2274794</t>
+  </si>
+  <si>
+    <t>SO2274775</t>
+  </si>
+  <si>
+    <t>SO2274765</t>
+  </si>
+  <si>
+    <t>SO2274764</t>
+  </si>
+  <si>
+    <t>SO2274753</t>
+  </si>
+  <si>
+    <t>SO2274752</t>
+  </si>
+  <si>
+    <t>SO2274724</t>
+  </si>
+  <si>
+    <t>SO2274723</t>
+  </si>
+  <si>
+    <t>SO2274659</t>
+  </si>
+  <si>
+    <t>SO2274629</t>
+  </si>
+  <si>
+    <t>SO2272192</t>
+  </si>
+  <si>
+    <t>SO2274604</t>
+  </si>
+  <si>
+    <t>SO2274603</t>
+  </si>
+  <si>
+    <t>SO2274586</t>
+  </si>
+  <si>
+    <t>SO2274562</t>
+  </si>
+  <si>
+    <t>SO2274561</t>
+  </si>
+  <si>
+    <t>SO2274531</t>
+  </si>
+  <si>
+    <t>SO2274517</t>
+  </si>
+  <si>
+    <t>SO2274516</t>
+  </si>
+  <si>
+    <t>SO2274432</t>
+  </si>
+  <si>
+    <t>SO2274425</t>
+  </si>
+  <si>
+    <t>SO2274377</t>
+  </si>
+  <si>
+    <t>SO2274358</t>
+  </si>
+  <si>
+    <t>SO2274357</t>
+  </si>
+  <si>
+    <t>SO2274339</t>
+  </si>
+  <si>
+    <t>SO2274327</t>
+  </si>
+  <si>
+    <t>SO2274320</t>
+  </si>
+  <si>
+    <t>SO2274293</t>
+  </si>
+  <si>
+    <t>SO2274276</t>
+  </si>
+  <si>
+    <t>SO2274249</t>
+  </si>
+  <si>
+    <t>SO2274239</t>
+  </si>
+  <si>
+    <t>SO2274238</t>
+  </si>
+  <si>
+    <t>SO2274217</t>
+  </si>
+  <si>
+    <t>SO2274206</t>
+  </si>
+  <si>
+    <t>SO2274195</t>
+  </si>
+  <si>
+    <t>SO2274194</t>
+  </si>
+  <si>
+    <t>SO2274179</t>
+  </si>
+  <si>
+    <t>SO2274178</t>
+  </si>
+  <si>
+    <t>SO2274177</t>
+  </si>
+  <si>
+    <t>SO2274176</t>
+  </si>
+  <si>
+    <t>SO2274134</t>
+  </si>
+  <si>
+    <t>SO2274120</t>
+  </si>
+  <si>
+    <t>SO2274100</t>
+  </si>
+  <si>
+    <t>SO2274072</t>
+  </si>
+  <si>
+    <t>SO2274019</t>
+  </si>
+  <si>
+    <t>SO2274018</t>
+  </si>
+  <si>
+    <t>SO2274001</t>
+  </si>
+  <si>
+    <t>SO2273999</t>
+  </si>
+  <si>
+    <t>SO2273961</t>
+  </si>
+  <si>
+    <t>SO2273952</t>
+  </si>
+  <si>
+    <t>SO2273923</t>
+  </si>
+  <si>
+    <t>SO2273911</t>
+  </si>
+  <si>
+    <t>SO2273858</t>
+  </si>
+  <si>
+    <t>SO2273842</t>
+  </si>
+  <si>
+    <t>SO2273826</t>
+  </si>
+  <si>
+    <t>SO2273825</t>
+  </si>
+  <si>
+    <t>SO2273810</t>
+  </si>
+  <si>
+    <t>SO2273786</t>
+  </si>
+  <si>
+    <t>SO2273785</t>
+  </si>
+  <si>
+    <t>SO2273784</t>
+  </si>
+  <si>
+    <t>SO2273783</t>
+  </si>
+  <si>
+    <t>SO2273758</t>
+  </si>
+  <si>
+    <t>SO2273756</t>
+  </si>
+  <si>
+    <t>SO2273755</t>
+  </si>
+  <si>
+    <t>SO2273754</t>
+  </si>
+  <si>
+    <t>SO2273753</t>
+  </si>
+  <si>
+    <t>SO2273714</t>
+  </si>
+  <si>
+    <t>SO2273703</t>
+  </si>
+  <si>
+    <t>SO2273702</t>
+  </si>
+  <si>
+    <t>SO2273692</t>
+  </si>
+  <si>
+    <t>SO2273691</t>
+  </si>
+  <si>
+    <t>SO2273689</t>
+  </si>
+  <si>
+    <t>SO2273656</t>
+  </si>
+  <si>
+    <t>SO2273620</t>
+  </si>
+  <si>
+    <t>SO2273619</t>
+  </si>
+  <si>
+    <t>SO2273595</t>
+  </si>
+  <si>
+    <t>SO2273562</t>
+  </si>
+  <si>
+    <t>SO2273561</t>
+  </si>
+  <si>
+    <t>SO2273552</t>
+  </si>
+  <si>
+    <t>SO2273550</t>
+  </si>
+  <si>
+    <t>SO2273548</t>
+  </si>
+  <si>
+    <t>SO2273547</t>
+  </si>
+  <si>
+    <t>SO2273545</t>
+  </si>
+  <si>
+    <t>SO2273529</t>
+  </si>
+  <si>
+    <t>SO2273520</t>
+  </si>
+  <si>
+    <t>SO2273506</t>
+  </si>
+  <si>
+    <t>SO2273495</t>
+  </si>
+  <si>
+    <t>SO2273494</t>
+  </si>
+  <si>
+    <t>SO2273473</t>
+  </si>
+  <si>
+    <t>SO2273456</t>
+  </si>
+  <si>
+    <t>SO2273454</t>
+  </si>
+  <si>
+    <t>SO2273453</t>
+  </si>
+  <si>
+    <t>SO2273437</t>
+  </si>
+  <si>
+    <t>SO2273424</t>
+  </si>
+  <si>
+    <t>SO2273410</t>
+  </si>
+  <si>
+    <t>SO2273409</t>
+  </si>
+  <si>
+    <t>SO2273408</t>
+  </si>
+  <si>
+    <t>SO2273396</t>
+  </si>
+  <si>
+    <t>SO2273395</t>
+  </si>
+  <si>
+    <t>SO2273368</t>
+  </si>
+  <si>
+    <t>SO2273366</t>
+  </si>
+  <si>
+    <t>SO2273365</t>
+  </si>
+  <si>
+    <t>SO2273352</t>
+  </si>
+  <si>
+    <t>SO2273334</t>
+  </si>
+  <si>
+    <t>SO2273300</t>
+  </si>
+  <si>
+    <t>SO2273299</t>
+  </si>
+  <si>
+    <t>SO2273248</t>
+  </si>
+  <si>
+    <t>SO2273246</t>
+  </si>
+  <si>
+    <t>SO2273245</t>
+  </si>
+  <si>
+    <t>SO2273215</t>
+  </si>
+  <si>
+    <t>SO2273213</t>
+  </si>
+  <si>
+    <t>SO2273187</t>
+  </si>
+  <si>
+    <t>SO2273186</t>
+  </si>
+  <si>
+    <t>SO2273181</t>
+  </si>
+  <si>
+    <t>SO2273159</t>
+  </si>
+  <si>
+    <t>SO2273149</t>
+  </si>
+  <si>
+    <t>SO2273147</t>
+  </si>
+  <si>
+    <t>SO2273130</t>
+  </si>
+  <si>
+    <t>SO2273129</t>
+  </si>
+  <si>
+    <t>SO2273128</t>
+  </si>
+  <si>
+    <t>SO2273093</t>
+  </si>
+  <si>
+    <t>SO2273091</t>
+  </si>
+  <si>
+    <t>SO2273090</t>
+  </si>
+  <si>
+    <t>SO2273070</t>
+  </si>
+  <si>
+    <t>SO2273045</t>
+  </si>
+  <si>
+    <t>SO2273016</t>
+  </si>
+  <si>
+    <t>SO2272976</t>
+  </si>
+  <si>
+    <t>SO2272974</t>
+  </si>
+  <si>
+    <t>SO2272959</t>
+  </si>
+  <si>
+    <t>SO2272944</t>
+  </si>
+  <si>
+    <t>SO2272943</t>
+  </si>
+  <si>
+    <t>SO2272941</t>
+  </si>
+  <si>
+    <t>SO2272939</t>
+  </si>
+  <si>
+    <t>SO2272938</t>
+  </si>
+  <si>
+    <t>SO2272922</t>
+  </si>
+  <si>
+    <t>SO2272882</t>
+  </si>
+  <si>
+    <t>SO2272864</t>
+  </si>
+  <si>
+    <t>SO2272841</t>
+  </si>
+  <si>
+    <t>SO2272840</t>
+  </si>
+  <si>
+    <t>SO2272839</t>
+  </si>
+  <si>
+    <t>SO2272815</t>
+  </si>
+  <si>
+    <t>SO2272814</t>
+  </si>
+  <si>
+    <t>SO2272791</t>
+  </si>
+  <si>
+    <t>SO2272790</t>
+  </si>
+  <si>
+    <t>SO2272789</t>
+  </si>
+  <si>
+    <t>SO2272767</t>
+  </si>
+  <si>
+    <t>SO2272746</t>
+  </si>
+  <si>
+    <t>SO2272745</t>
+  </si>
+  <si>
+    <t>SO2272726</t>
+  </si>
+  <si>
+    <t>SO2272693</t>
+  </si>
+  <si>
+    <t>SO2272672</t>
+  </si>
+  <si>
+    <t>SO2272670</t>
+  </si>
+  <si>
+    <t>SO2272668</t>
+  </si>
+  <si>
+    <t>SO2272646</t>
+  </si>
+  <si>
+    <t>SO2272645</t>
+  </si>
+  <si>
+    <t>SO2272628</t>
+  </si>
+  <si>
+    <t>SO2272627</t>
+  </si>
+  <si>
+    <t>SO2272614</t>
+  </si>
+  <si>
+    <t>SO2272598</t>
+  </si>
+  <si>
+    <t>SO2272597</t>
+  </si>
+  <si>
+    <t>SO2272531</t>
+  </si>
+  <si>
+    <t>SO2272530</t>
+  </si>
+  <si>
+    <t>SO2272460</t>
+  </si>
+  <si>
+    <t>SO2272440</t>
+  </si>
+  <si>
+    <t>SO2272424</t>
+  </si>
+  <si>
+    <t>SO2272406</t>
+  </si>
+  <si>
+    <t>SO2272379</t>
+  </si>
+  <si>
+    <t>SO2272359</t>
+  </si>
+  <si>
+    <t>SO2272248</t>
+  </si>
+  <si>
+    <t>SO2272247</t>
+  </si>
+  <si>
+    <t>SO2272227</t>
+  </si>
+  <si>
+    <t>SO2272206</t>
+  </si>
+  <si>
+    <t>SO2272188</t>
+  </si>
+  <si>
+    <t>SO2271146</t>
+  </si>
+  <si>
+    <t>SO2272140</t>
+  </si>
+  <si>
+    <t>SO2272139</t>
+  </si>
+  <si>
+    <t>SO2272090</t>
+  </si>
+  <si>
+    <t>SO2272024</t>
+  </si>
+  <si>
+    <t>SO2272010</t>
+  </si>
+  <si>
+    <t>SO2271972</t>
+  </si>
+  <si>
+    <t>SO2271970</t>
+  </si>
+  <si>
+    <t>SO2271905</t>
+  </si>
+  <si>
+    <t>SO2271904</t>
+  </si>
+  <si>
+    <t>SO2271903</t>
+  </si>
+  <si>
+    <t>SO2271887</t>
+  </si>
+  <si>
+    <t>SO2271805</t>
+  </si>
+  <si>
+    <t>SO2271724</t>
+  </si>
+  <si>
+    <t>SO2271723</t>
+  </si>
+  <si>
+    <t>SO2271707</t>
+  </si>
+  <si>
+    <t>SO2271647</t>
+  </si>
+  <si>
+    <t>SO2271563</t>
+  </si>
+  <si>
+    <t>SO2271561</t>
+  </si>
+  <si>
+    <t>SO2270393</t>
+  </si>
+  <si>
+    <t>SO2271500</t>
+  </si>
+  <si>
+    <t>SO2271414</t>
+  </si>
+  <si>
+    <t>SO2271413</t>
+  </si>
+  <si>
+    <t>SO2271390</t>
+  </si>
+  <si>
+    <t>SO2271359</t>
+  </si>
+  <si>
+    <t>SO2271338</t>
+  </si>
+  <si>
+    <t>SO2271333</t>
+  </si>
+  <si>
+    <t>SO2271246</t>
+  </si>
+  <si>
+    <t>SO2271228</t>
+  </si>
+  <si>
+    <t>SO2271210</t>
+  </si>
+  <si>
+    <t>SO2271204</t>
+  </si>
+  <si>
+    <t>SO2271183</t>
+  </si>
+  <si>
+    <t>SO2271160</t>
+  </si>
+  <si>
+    <t>SO2271145</t>
+  </si>
+  <si>
+    <t>SO2271063</t>
+  </si>
+  <si>
+    <t>SO2271062</t>
+  </si>
+  <si>
+    <t>SO2271056</t>
+  </si>
+  <si>
+    <t>SO2271024</t>
+  </si>
+  <si>
+    <t>SO2270977</t>
+  </si>
+  <si>
+    <t>SO2270958</t>
+  </si>
+  <si>
+    <t>SO2270923</t>
+  </si>
+  <si>
+    <t>SO2270842</t>
+  </si>
+  <si>
+    <t>SO2270825</t>
+  </si>
+  <si>
+    <t>SO2270824</t>
+  </si>
+  <si>
+    <t>SO2270723</t>
+  </si>
+  <si>
+    <t>SO2270597</t>
+  </si>
+  <si>
+    <t>SO2270581</t>
+  </si>
+  <si>
+    <t>SO2270456</t>
+  </si>
+  <si>
+    <t>SO2270392</t>
+  </si>
+  <si>
+    <t>SO2270391</t>
+  </si>
+  <si>
+    <t>SO2270390</t>
+  </si>
+  <si>
+    <t>SO2270330</t>
+  </si>
+  <si>
+    <t>SO2270313</t>
+  </si>
+  <si>
+    <t>SO2270295</t>
+  </si>
+  <si>
+    <t>SO2270283</t>
+  </si>
+  <si>
+    <t>SO2270269</t>
+  </si>
+  <si>
+    <t>SO2270255</t>
+  </si>
+  <si>
+    <t>SO2270249</t>
+  </si>
+  <si>
+    <t>SO2270208</t>
+  </si>
+  <si>
+    <t>SO2270192</t>
+  </si>
+  <si>
+    <t>SO2270165</t>
+  </si>
+  <si>
+    <t>SO2270146</t>
+  </si>
+  <si>
+    <t>SO2270145</t>
+  </si>
+  <si>
+    <t>SO2270110</t>
+  </si>
+  <si>
+    <t>SO2270067</t>
+  </si>
+  <si>
+    <t>SO2270006</t>
+  </si>
+  <si>
+    <t>SO2269953</t>
+  </si>
+  <si>
+    <t>SO2269937</t>
+  </si>
+  <si>
+    <t>SO2269936</t>
+  </si>
+  <si>
+    <t>SO2269877</t>
+  </si>
+  <si>
+    <t>SO2269819</t>
+  </si>
+  <si>
+    <t>SO2269774</t>
+  </si>
+  <si>
+    <t>SO2269772</t>
+  </si>
+  <si>
+    <t>SO2269683</t>
+  </si>
+  <si>
+    <t>SO2269205</t>
+  </si>
+  <si>
+    <t>SO2269526</t>
+  </si>
+  <si>
+    <t>SO2269478</t>
+  </si>
+  <si>
+    <t>SO2269444</t>
+  </si>
+  <si>
+    <t>SO2269443</t>
+  </si>
+  <si>
+    <t>SO2269381</t>
+  </si>
+  <si>
+    <t>SO2269322</t>
+  </si>
+  <si>
+    <t>SO2269321</t>
+  </si>
+  <si>
+    <t>SO2269248</t>
+  </si>
+  <si>
+    <t>SO2269206</t>
+  </si>
+  <si>
+    <t>SO2269180</t>
+  </si>
+  <si>
+    <t>SO2269179</t>
+  </si>
+  <si>
+    <t>SO2269176</t>
+  </si>
+  <si>
+    <t>SO2269132</t>
+  </si>
+  <si>
+    <t>SO2269131</t>
+  </si>
+  <si>
+    <t>SO2269007</t>
+  </si>
+  <si>
+    <t>SO2268958</t>
+  </si>
+  <si>
+    <t>SO2268856</t>
+  </si>
+  <si>
+    <t>SO2268854</t>
+  </si>
+  <si>
+    <t>SO2268851</t>
+  </si>
+  <si>
+    <t>SO2268776</t>
+  </si>
+  <si>
+    <t>SO2268727</t>
+  </si>
+  <si>
+    <t>SO2268714</t>
+  </si>
+  <si>
+    <t>SO2268554</t>
+  </si>
+  <si>
+    <t>SO2268529</t>
+  </si>
+  <si>
+    <t>SO2268527</t>
+  </si>
+  <si>
+    <t>SO2268525</t>
+  </si>
+  <si>
+    <t>SO2268522</t>
+  </si>
+  <si>
+    <t>SO2268423</t>
+  </si>
+  <si>
+    <t>SO2268294</t>
+  </si>
+  <si>
+    <t>SO2268227</t>
+  </si>
+  <si>
+    <t>SO2268173</t>
+  </si>
+  <si>
+    <t>SO2268000</t>
+  </si>
+  <si>
+    <t>SO2267974</t>
+  </si>
+  <si>
+    <t>SO2267956</t>
+  </si>
+  <si>
+    <t>SO2267343</t>
+  </si>
+  <si>
+    <t>SO2266994</t>
+  </si>
+  <si>
+    <t>SO2266941</t>
+  </si>
+  <si>
+    <t>SO2266936</t>
+  </si>
+  <si>
+    <t>SO2266931</t>
+  </si>
+  <si>
+    <t>SO2266918</t>
+  </si>
+  <si>
+    <t>SO2266883</t>
+  </si>
+  <si>
+    <t>SO2266685</t>
+  </si>
+  <si>
+    <t>SO2266559</t>
+  </si>
+  <si>
+    <t>SO2266409</t>
+  </si>
+  <si>
+    <t>SO2266318</t>
+  </si>
+  <si>
+    <t>SO2266312</t>
+  </si>
+  <si>
+    <t>SO2266297</t>
+  </si>
+  <si>
+    <t>SO2266133</t>
+  </si>
+  <si>
+    <t>SO2266042</t>
+  </si>
+  <si>
+    <t>SO2265822</t>
+  </si>
+  <si>
+    <t>SO2265821</t>
+  </si>
+  <si>
+    <t>SO2265700</t>
+  </si>
+  <si>
+    <t>SO2265299</t>
+  </si>
+  <si>
+    <t>SO2265297</t>
+  </si>
+  <si>
+    <t>SO2265294</t>
+  </si>
+  <si>
+    <t>SO2265279</t>
+  </si>
+  <si>
+    <t>SO2265191</t>
+  </si>
+  <si>
+    <t>SO2264904</t>
+  </si>
+  <si>
+    <t>SO2264903</t>
+  </si>
+  <si>
+    <t>SO2264729</t>
+  </si>
+  <si>
+    <t>SO2264686</t>
+  </si>
+  <si>
+    <t>SO2264673</t>
+  </si>
+  <si>
+    <t>SO2264378</t>
+  </si>
+  <si>
+    <t>SO2264112</t>
+  </si>
+  <si>
+    <t>SO2264035</t>
+  </si>
+  <si>
+    <t>SO2263948</t>
+  </si>
+  <si>
+    <t>SO2263871</t>
+  </si>
+  <si>
+    <t>SO2263582</t>
+  </si>
+  <si>
+    <t>SO2263429</t>
+  </si>
+  <si>
+    <t>SO2263392</t>
+  </si>
+  <si>
+    <t>SO2262866</t>
+  </si>
+  <si>
+    <t>SO2257174</t>
+  </si>
+  <si>
+    <t>SO2256726</t>
+  </si>
+  <si>
+    <t>SO2256353</t>
+  </si>
+  <si>
+    <t>SO2255658</t>
+  </si>
+  <si>
+    <t>SO2253860</t>
+  </si>
+  <si>
+    <t>SO2253852</t>
+  </si>
+  <si>
+    <t>SO2253710</t>
+  </si>
+  <si>
+    <t>SO2087768</t>
+  </si>
+  <si>
+    <t>SO2064123</t>
+  </si>
+  <si>
+    <t>SO2062862</t>
+  </si>
+  <si>
+    <t>SO2062800</t>
+  </si>
+  <si>
+    <t>SO2062799</t>
   </si>
 </sst>
 </file>
@@ -1657,11 +3352,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DD2571-4B9C-4A12-8B76-CF0D7D405277}">
-  <dimension ref="A1:A427"/>
+  <dimension ref="A1:A992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A427"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3800,6 +5493,2831 @@
         <v>426</v>
       </c>
     </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
